--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H2">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I2">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J2">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N2">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q2">
-        <v>156.804892347378</v>
+        <v>38.88609393133889</v>
       </c>
       <c r="R2">
-        <v>1411.244031126402</v>
+        <v>349.97484538205</v>
       </c>
       <c r="S2">
-        <v>0.002163257143866095</v>
+        <v>0.000827893543349973</v>
       </c>
       <c r="T2">
-        <v>0.002163257143866095</v>
+        <v>0.0008278935433499731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H3">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I3">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J3">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>308.700149</v>
       </c>
       <c r="O3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q3">
-        <v>151.415570883606</v>
+        <v>194.5402956985749</v>
       </c>
       <c r="R3">
-        <v>1362.740137952454</v>
+        <v>1750.862661287174</v>
       </c>
       <c r="S3">
-        <v>0.00208890686064108</v>
+        <v>0.004141805937480522</v>
       </c>
       <c r="T3">
-        <v>0.002088906860641079</v>
+        <v>0.004141805937480521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H4">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I4">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J4">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>102.603332</v>
       </c>
       <c r="O4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q4">
-        <v>50.326318726008</v>
+        <v>64.65977619900355</v>
       </c>
       <c r="R4">
-        <v>452.9368685340719</v>
+        <v>581.9379857910319</v>
       </c>
       <c r="S4">
-        <v>0.0006942944628751521</v>
+        <v>0.001376620941258066</v>
       </c>
       <c r="T4">
-        <v>0.000694294462875152</v>
+        <v>0.001376620941258066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>794.313995</v>
       </c>
       <c r="I5">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J5">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N5">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q5">
-        <v>28214.71153480884</v>
+        <v>5445.920451824903</v>
       </c>
       <c r="R5">
-        <v>253932.4038132796</v>
+        <v>49013.28406642412</v>
       </c>
       <c r="S5">
-        <v>0.3892459946631056</v>
+        <v>0.1159448513297403</v>
       </c>
       <c r="T5">
-        <v>0.3892459946631055</v>
+        <v>0.1159448513297403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>794.313995</v>
       </c>
       <c r="I6">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J6">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>308.700149</v>
       </c>
       <c r="O6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q6">
         <v>27244.98317880947</v>
@@ -818,10 +818,10 @@
         <v>245204.8486092853</v>
       </c>
       <c r="S6">
-        <v>0.3758677654361893</v>
+        <v>0.5800517198318242</v>
       </c>
       <c r="T6">
-        <v>0.3758677654361892</v>
+        <v>0.5800517198318242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>794.313995</v>
       </c>
       <c r="I7">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J7">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>102.603332</v>
       </c>
       <c r="O7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q7">
         <v>9055.47361569237</v>
@@ -880,10 +880,10 @@
         <v>81499.26254123134</v>
       </c>
       <c r="S7">
-        <v>0.1249279770355649</v>
+        <v>0.1927930368024398</v>
       </c>
       <c r="T7">
-        <v>0.1249279770355649</v>
+        <v>0.1927930368024398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.717342</v>
       </c>
       <c r="I8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N8">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O8">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P8">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q8">
-        <v>3328.920032863106</v>
+        <v>642.5383320716501</v>
       </c>
       <c r="R8">
-        <v>29960.28029576795</v>
+        <v>5782.84498864485</v>
       </c>
       <c r="S8">
-        <v>0.04592528928559599</v>
+        <v>0.013679783251469</v>
       </c>
       <c r="T8">
-        <v>0.04592528928559597</v>
+        <v>0.013679783251469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.717342</v>
       </c>
       <c r="I9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>308.700149</v>
       </c>
       <c r="O9">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P9">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q9">
         <v>3214.506382142662</v>
@@ -1004,10 +1004,10 @@
         <v>28930.55743928396</v>
       </c>
       <c r="S9">
-        <v>0.04434685545249538</v>
+        <v>0.06843755208564248</v>
       </c>
       <c r="T9">
-        <v>0.04434685545249537</v>
+        <v>0.06843755208564248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.717342</v>
       </c>
       <c r="I10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>102.603332</v>
       </c>
       <c r="O10">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P10">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q10">
         <v>1068.412395042616</v>
@@ -1066,10 +1066,10 @@
         <v>9615.711555383543</v>
       </c>
       <c r="S10">
-        <v>0.01473965965966668</v>
+        <v>0.02274673627679547</v>
       </c>
       <c r="T10">
-        <v>0.01473965965966668</v>
+        <v>0.02274673627679548</v>
       </c>
     </row>
   </sheetData>
